--- a/config/LeavePlan.xlsx
+++ b/config/LeavePlan.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/518289307e96aafe/Documents/VBAScripts/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{7E821AD0-B259-481E-881A-5295C166F7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BB04BDB-E018-4D4E-A129-97315D4DF479}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{7E821AD0-B259-481E-881A-5295C166F7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF1A3A9A-B3B9-470A-8B28-764FC0234F67}"/>
   <bookViews>
-    <workbookView xWindow="4404" yWindow="204" windowWidth="12072" windowHeight="11712" xr2:uid="{74F5FBDC-45A0-4106-829F-29EA4EAAE8DB}"/>
+    <workbookView minimized="1" xWindow="4524" yWindow="360" windowWidth="12072" windowHeight="11712" xr2:uid="{74F5FBDC-45A0-4106-829F-29EA4EAAE8DB}"/>
   </bookViews>
   <sheets>
     <sheet name="LeavePlan" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Dates" comment="Contains all dates in Leave calendar.">LeavePlan!$1:$1</definedName>
+    <definedName name="Names" comment="Names of all employees to search from.">LeavePlan!$A:$A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -98,7 +102,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="d/m/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="d/m/yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -158,13 +162,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -485,7 +489,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
